--- a/nr-test-ajout-target/ig/StructureDefinition-ror-healthcareservice-contact-telecom.xlsx
+++ b/nr-test-ajout-target/ig/StructureDefinition-ror-healthcareservice-contact-telecom.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T10:06:24+00:00</t>
+    <t>2025-07-28T13:05:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-ajout-target/ig/StructureDefinition-ror-healthcareservice-contact-telecom.xlsx
+++ b/nr-test-ajout-target/ig/StructureDefinition-ror-healthcareservice-contact-telecom.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:05:57+00:00</t>
+    <t>2025-07-28T16:01:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-ajout-target/ig/StructureDefinition-ror-healthcareservice-contact-telecom.xlsx
+++ b/nr-test-ajout-target/ig/StructureDefinition-ror-healthcareservice-contact-telecom.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T16:01:54+00:00</t>
+    <t>2025-07-30T08:58:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-ajout-target/ig/StructureDefinition-ror-healthcareservice-contact-telecom.xlsx
+++ b/nr-test-ajout-target/ig/StructureDefinition-ror-healthcareservice-contact-telecom.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T08:58:21+00:00</t>
+    <t>2025-08-06T08:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
